--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291728.572734662</v>
+        <v>2288710.982333724</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>249.8970500290478</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>45.68735282253539</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>30.28266751616624</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>97.58117330968092</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>266.6394592479135</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.6395982067212</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.20645720597736</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.0121640342927</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>156.1430249075253</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>4.407706342588605</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>84.16790000022195</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>118.1524710451385</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>18.13869167151594</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>147.7250137106809</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>202.8150262811378</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273995</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>64.02545868683842</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.04645315989238</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365866</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.96451678969</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>118.3913071106258</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>146.695698794786</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>163.3722054848479</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.9603296838534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>25.27740097140356</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>132.0653562270683</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.36834785699481</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>247.9685373415728</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274111</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>107.0429656238368</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>87.80122484518706</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>56.91396682806091</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>150.3454825180131</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>63.84216607141752</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.43941554183561</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6069425736791</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>198.9975240274615</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>88.9156920245631</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>192.2566039791708</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
         <v>395.0611058457707</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1947.397620238156</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1947.397620238156</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.5404311598019</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C4" t="n">
-        <v>528.604248231895</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D4" t="n">
-        <v>528.604248231895</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>697.5404311598019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>697.5404311598019</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>697.5404311598019</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>697.5404311598019</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>697.5404311598019</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>697.5404311598019</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.5404311598019</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.808290699805</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.845773759393</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.845773759393</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
         <v>959.5129866402885</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.808290699805</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1597.808290699805</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>557.6485750391623</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2070.717079250664</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1701.754562310252</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1343.488863703502</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1343.488863703502</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2539.428863838904</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2320.794196810967</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2067.032411449059</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2067.032411449059</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="X8" t="n">
-        <v>2070.717079250664</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="Y8" t="n">
-        <v>2070.717079250664</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.3883323957195</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>509.3883323957195</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>509.3883323957195</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>509.3883323957195</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>509.3883323957195</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>509.3883323957195</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>509.3883323957195</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>509.3883323957195</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,7 +5118,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>549.5984374701561</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>626.428715221413</v>
+        <v>693.2786482925557</v>
       </c>
       <c r="C13" t="n">
-        <v>626.428715221413</v>
+        <v>693.2786482925557</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>543.1620088802199</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>395.2489152978268</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>395.2489152978268</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>227.0735936176474</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909237</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227954</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227954</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227954</v>
       </c>
       <c r="X13" t="n">
-        <v>847.2212943649431</v>
+        <v>874.9271131227954</v>
       </c>
       <c r="Y13" t="n">
-        <v>626.428715221413</v>
+        <v>874.9271131227954</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5361,19 +5361,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662453</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471234</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.77907490711</v>
+        <v>1075.210845262965</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.77907490711</v>
+        <v>786.0822064765227</v>
       </c>
       <c r="V16" t="n">
-        <v>895.0945867012233</v>
+        <v>786.0822064765227</v>
       </c>
       <c r="W16" t="n">
-        <v>605.6774166642626</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="X16" t="n">
-        <v>377.6878657662453</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y16" t="n">
-        <v>377.6878657662453</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5531,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>2786.87950510831</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014775</v>
+        <v>3033.644633014774</v>
       </c>
       <c r="M18" t="n">
-        <v>3802.012779407237</v>
+        <v>3340.964766294736</v>
       </c>
       <c r="N18" t="n">
-        <v>4131.875407071269</v>
+        <v>3670.827393958768</v>
       </c>
       <c r="O18" t="n">
-        <v>4411.415472289967</v>
+        <v>4340.291155261428</v>
       </c>
       <c r="P18" t="n">
-        <v>4616.437953072176</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705859</v>
+        <v>330.8254548799487</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>161.8892719520418</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1406.950156254981</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1406.950156254981</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.950156254981</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1406.950156254981</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>1152.265668049094</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W19" t="n">
-        <v>862.8484980121333</v>
+        <v>330.8254548799487</v>
       </c>
       <c r="X19" t="n">
-        <v>634.8589471141159</v>
+        <v>330.8254548799487</v>
       </c>
       <c r="Y19" t="n">
-        <v>414.0663679705859</v>
+        <v>330.8254548799487</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155874</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>2525.058920465857</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>3138.955990222746</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>3446.276123502707</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>3776.13875116674</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>4253.421048821321</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4018.11458065703</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="C22" t="n">
-        <v>4018.11458065703</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="D22" t="n">
-        <v>3867.997941244694</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244694</v>
+        <v>216.8042703599078</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746784</v>
+        <v>216.8042703599078</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V22" t="n">
-        <v>4199.76304548727</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W22" t="n">
-        <v>4199.76304548727</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X22" t="n">
-        <v>4199.76304548727</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y22" t="n">
-        <v>4199.76304548727</v>
+        <v>364.7173639423009</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4019.137726741513</v>
+        <v>727.722798873107</v>
       </c>
       <c r="C25" t="n">
-        <v>4019.137726741513</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746784</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576118</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4460.650830789676</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>4205.966342583789</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W25" t="n">
-        <v>4205.966342583789</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X25" t="n">
-        <v>4205.966342583789</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y25" t="n">
-        <v>4019.137726741513</v>
+        <v>909.3712637033467</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>549.6692635248398</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="C28" t="n">
-        <v>380.733080596933</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="D28" t="n">
-        <v>230.6164411845972</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>230.6164411845972</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3177283550796</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X28" t="n">
-        <v>731.3177283550796</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y28" t="n">
-        <v>731.3177283550796</v>
+        <v>736.1461909267684</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6443,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2577.031280742779</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3190.928350499667</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>3959.296496892129</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>356.6647764207315</v>
+        <v>472.197537898503</v>
       </c>
       <c r="C31" t="n">
-        <v>356.6647764207315</v>
+        <v>303.2613549705961</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>153.1447155582604</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>153.1447155582604</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>153.1447155582604</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>153.1447155582604</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1048.522990431462</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>1048.522990431462</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>759.1058203945013</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X31" t="n">
-        <v>759.1058203945013</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y31" t="n">
-        <v>538.3132412509711</v>
+        <v>653.8460027287427</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6716,10 +6716,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,13 +6780,13 @@
         <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014775</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M33" t="n">
-        <v>3644.018355938592</v>
+        <v>3169.469405338474</v>
       </c>
       <c r="N33" t="n">
         <v>3973.880983602625</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>933.2366688293934</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C34" t="n">
-        <v>764.3004859014865</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>614.1838464891507</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>614.1838464891507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>467.2938989912403</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6883,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1299.153061215498</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1010.024422429056</v>
       </c>
       <c r="V34" t="n">
-        <v>933.2366688293934</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W34" t="n">
-        <v>933.2366688293934</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X34" t="n">
-        <v>933.2366688293934</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.2366688293934</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1908.095276920732</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2187.63534213943</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>510.7324460062429</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="C37" t="n">
-        <v>510.7324460062429</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="D37" t="n">
-        <v>360.6158065939071</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="E37" t="n">
-        <v>360.6158065939071</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F37" t="n">
-        <v>360.6158065939071</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
         <v>208.7516828383384</v>
@@ -7090,7 +7090,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X37" t="n">
-        <v>692.3809108364826</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.3809108364826</v>
+        <v>581.3058073983079</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>732.169830515405</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3946.383537937097</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C40" t="n">
-        <v>3777.44735500919</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596854</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596854</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596854</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4713.98208013992</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4490.196664929425</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4201.068026142983</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>3946.383537937097</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>3946.383537937097</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>3946.383537937097</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y40" t="n">
-        <v>3946.383537937097</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>3446.276123502708</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>3776.138751166741</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>4055.678816385438</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4575.979438121186</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>973.8210231111786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W43" t="n">
-        <v>973.8210231111786</v>
+        <v>874.2032452352215</v>
       </c>
       <c r="X43" t="n">
-        <v>745.8314722131613</v>
+        <v>874.2032452352215</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7625,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7731,19 +7731,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3606.045341414585</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C46" t="n">
-        <v>3606.045341414585</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>3606.045341414585</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>3606.045341414585</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4555.580879698167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4331.795464487673</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4331.795464487673</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4077.110976281785</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>3787.693806244825</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>3787.693806244825</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>3787.693806244825</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>306.1147370139961</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.715186377203</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.872441903932</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.7396287231154</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>52.49733361305132</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,16 +10428,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>306.1147370139951</v>
+        <v>91.23759968302079</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>80.50021372615248</v>
       </c>
       <c r="P36" t="n">
-        <v>145.2351313103796</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>444.488938686166</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.0022427662454</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>285.1031356539328</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>30.46300197307382</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>130.7751366960202</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>73.82254734770834</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.70797205545318</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>84.59001433137394</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.91789924390041</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>48.10226135275181</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>105.441944529042</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>3.874615613779952</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.62432366824143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.3380720468088</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13.35569179586298</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>93.54548051054132</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>38.26881505700459</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>59.45060283954078</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>133.7463362132022</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>89.51999581850825</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.14808594536453</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>103.4046550272103</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>162.4813944417676</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,22 +25834,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>18.53070075014887</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>87.52547430912946</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>78.33112907406473</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>5.66420600443243</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.9013800522</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049991</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143919</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143917</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430953</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254457.4621147103</v>
+        <v>-254872.6766241778</v>
       </c>
       <c r="C6" t="n">
-        <v>335510.4170998341</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="D6" t="n">
-        <v>335510.4170998343</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="E6" t="n">
-        <v>-84418.17944712995</v>
+        <v>-84752.34841425938</v>
       </c>
       <c r="F6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626368</v>
       </c>
       <c r="G6" t="n">
-        <v>440741.8570297663</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="H6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626361</v>
       </c>
       <c r="I6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="J6" t="n">
-        <v>264318.637837173</v>
+        <v>263984.4688700431</v>
       </c>
       <c r="K6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="L6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="M6" t="n">
-        <v>305940.841795929</v>
+        <v>305606.6728287993</v>
       </c>
       <c r="N6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626361</v>
       </c>
       <c r="O6" t="n">
-        <v>440741.8570297662</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="P6" t="n">
-        <v>440741.8570297663</v>
+        <v>440407.6880626362</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>104.7859915916351</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>324.0437478559336</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>181.8628714338527</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>121.0034800424139</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>115.2909108243483</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>150.5983404493324</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>117.0403638926505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>7.012336859472725</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.86388170741878</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>18.2726879014462</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6273991154957</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>202.3550983363691</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>639.309310412009</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118046</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>595.5275127043998</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789767</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>437.8086013087276</v>
       </c>
       <c r="Q18" t="n">
-        <v>246.8854746890061</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>203.0727722009906</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>616.5391140644614</v>
+        <v>401.661976733487</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>362.8639159672606</v>
       </c>
       <c r="P36" t="n">
-        <v>352.3285462419043</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325992</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.0152755513195</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325992</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>618.2977090519457</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288710.982333724</v>
+        <v>2364240.651998531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>249.8970500290478</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>276.8115626053595</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>88.80932687628595</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.58117330968092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>133.8822664769756</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>235.6395982067212</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>139.6528551206851</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>113.5079843357167</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>156.1430249075253</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>58.69009380754687</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>84.16790000022195</v>
+        <v>142.6271181085174</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>18.13869167151594</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>121.3204809373253</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>202.8150262811378</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>108.0397298726694</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273995</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>70.14968808829694</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>64.02545868683842</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365866</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>118.3913071106258</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>12.81263415054188</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>163.3722054848479</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>20.44435658528488</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>25.27740097140356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>191.6057157592136</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>55.36834785699481</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>90.621375795679</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>61.86740347662654</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>87.80122484518706</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>123.8662796794404</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>56.91396682806091</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>63.84216607141752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>175.9880246214064</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>117.1709514206834</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>198.9975240274615</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>88.9156920245631</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>191.2952892163686</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1040.216121848822</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="C2" t="n">
-        <v>1040.216121848822</v>
+        <v>1701.754562310252</v>
       </c>
       <c r="D2" t="n">
-        <v>787.7948591932184</v>
+        <v>1701.754562310252</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>1315.966309712008</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>904.9804049224006</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>487.0165968205874</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.815961912944</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.388532134052</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>143.6493726044917</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.388532134052</v>
+        <v>325.2978374347314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>1358.140854479381</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1358.140854479381</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>999.875155872631</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>614.0869032743867</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>203.1009984847792</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>189.1775944233701</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>189.1775944233701</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>2459.129294849817</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>557.6485750391623</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>343.360151857325</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>343.360151857325</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2539.428863838904</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2320.794196810967</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2067.032411449059</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2067.032411449059</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1714.263756178945</v>
+        <v>1934.263538435114</v>
       </c>
       <c r="X8" t="n">
-        <v>1714.263756178945</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.263756178945</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>428.8224802162921</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.2786482925557</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C13" t="n">
-        <v>693.2786482925557</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D13" t="n">
-        <v>543.1620088802199</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>395.2489152978268</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>395.2489152978268</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>227.0735936176474</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119731</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909237</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227954</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227954</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9271131227954</v>
+        <v>921.7658319268351</v>
       </c>
       <c r="X13" t="n">
-        <v>874.9271131227954</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.9271131227954</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,43 +5445,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471234</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974671</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980068</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473459</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765227</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765227</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>581.2185435662825</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>581.2185435662825</v>
+        <v>1135.100742076592</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.2185435662825</v>
+        <v>914.3081629330617</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.87950510831</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014774</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294736</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N18" t="n">
-        <v>3670.827393958768</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O18" t="n">
-        <v>4340.291155261428</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.8254548799487</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>161.8892719520418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799487</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X19" t="n">
-        <v>330.8254548799487</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.8254548799487</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155874</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5765,37 +5767,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465857</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222746</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>3446.276123502707</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>3776.13875116674</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>4253.421048821321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.7173639423009</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="C22" t="n">
-        <v>364.7173639423009</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="D22" t="n">
-        <v>364.7173639423009</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E22" t="n">
-        <v>216.8042703599078</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8042703599078</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>4334.99846431984</v>
       </c>
       <c r="W22" t="n">
-        <v>585.5099430858311</v>
+        <v>4334.99846431984</v>
       </c>
       <c r="X22" t="n">
-        <v>585.5099430858311</v>
+        <v>4107.008913421822</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.7173639423009</v>
+        <v>4107.008913421822</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.607977814708</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
         <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.825180851558</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.687808515591</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1943.227873734288</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.722798873107</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="C25" t="n">
-        <v>562.7003690904323</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>4033.668348055211</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>3885.755254472818</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V25" t="n">
-        <v>909.3712637033467</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W25" t="n">
-        <v>909.3712637033467</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="X25" t="n">
-        <v>909.3712637033467</v>
+        <v>4054.319213292873</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.3712637033467</v>
+        <v>4033.668348055211</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>736.1461909267684</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>736.1461909267684</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1081.589728317899</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>1081.589728317899</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>792.1725582809389</v>
       </c>
       <c r="X28" t="n">
-        <v>736.1461909267684</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.1461909267684</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6445,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>3870.054822428816</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>472.197537898503</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C31" t="n">
-        <v>303.2613549705961</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D31" t="n">
-        <v>153.1447155582604</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E31" t="n">
-        <v>153.1447155582604</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>153.1447155582604</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>153.1447155582604</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>874.6385818722729</v>
+        <v>894.4654733330078</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6385818722729</v>
+        <v>894.4654733330078</v>
       </c>
       <c r="Y31" t="n">
-        <v>653.8460027287427</v>
+        <v>894.4654733330078</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,13 +6788,13 @@
         <v>2771.824048372322</v>
       </c>
       <c r="M33" t="n">
-        <v>3169.469405338474</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N33" t="n">
-        <v>3973.880983602625</v>
+        <v>3870.054822428816</v>
       </c>
       <c r="O33" t="n">
-        <v>4253.421048821322</v>
+        <v>4539.518583731476</v>
       </c>
       <c r="P33" t="n">
         <v>4773.721670557069</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>4008.875864681164</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>3839.939681753257</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>3689.823042340921</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>1299.153061215498</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U34" t="n">
-        <v>1010.024422429056</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V34" t="n">
-        <v>755.3399342231696</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="W34" t="n">
-        <v>465.9227641862091</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="X34" t="n">
-        <v>465.9227641862091</v>
+        <v>4008.875864681164</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>4008.875864681164</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.3058073983079</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C37" t="n">
-        <v>581.3058073983079</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D37" t="n">
-        <v>581.3058073983079</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164282</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185178</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7123,22 +7125,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333286</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W37" t="n">
-        <v>809.2953582963253</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X37" t="n">
-        <v>581.3058073983079</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="Y37" t="n">
-        <v>581.3058073983079</v>
+        <v>688.5786845598168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,55 +7171,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,16 +7259,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>738.7219969042602</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C40" t="n">
-        <v>674.2349604684849</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>674.2349604684849</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7372,10 +7374,10 @@
         <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>920.3704617344999</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y40" t="n">
-        <v>920.3704617344999</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="41">
@@ -7403,40 +7405,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>692.5547804049818</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7600,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>874.2032452352215</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X43" t="n">
-        <v>874.2032452352215</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.2032452352215</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079765</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>484.0375086983735</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.715186377203</v>
+        <v>158.8724419039333</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>199.7396287231154</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>182.034074286795</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,19 +9956,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.7151863772035</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10194,22 +10196,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231156</v>
+        <v>213.260391180662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.23759968302079</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978171</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>253.7371603504723</v>
       </c>
       <c r="O36" t="n">
-        <v>80.50021372615248</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.874910276575</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>38.86002301949878</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>444.488938686166</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>130.7751366960202</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>165.2025173992657</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.70797205545318</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>117.6699255163678</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>109.6822920936404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>84.59001433137394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>48.10226135275181</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>239.3250091732861</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>3.874615613779952</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>198.1402967668099</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>123.3380720468088</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>94.63163663936371</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.54548051054132</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>195.901622540912</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>84.56655916994264</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>133.7463362132022</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>55.96570050249687</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>89.51999581850825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>103.4046550272103</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>49.72163076763078</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>31.44452159752893</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>87.52547430912946</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>78.33112907406473</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>60.84235410745936</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800522</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.9013800522</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.9013800522</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327917</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143919</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241778</v>
+        <v>-254872.6766241774</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903666</v>
+        <v>335095.2025903667</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903667</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425938</v>
+        <v>-84752.34841425967</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626368</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="G6" t="n">
+        <v>440407.6880626365</v>
+      </c>
+      <c r="H6" t="n">
         <v>440407.6880626364</v>
-      </c>
-      <c r="H6" t="n">
-        <v>440407.6880626361</v>
       </c>
       <c r="I6" t="n">
         <v>440407.6880626364</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700431</v>
+        <v>263984.4688700436</v>
       </c>
       <c r="K6" t="n">
-        <v>440407.6880626365</v>
+        <v>440407.6880626366</v>
       </c>
       <c r="L6" t="n">
+        <v>440407.6880626364</v>
+      </c>
+      <c r="M6" t="n">
+        <v>305606.6728287992</v>
+      </c>
+      <c r="N6" t="n">
         <v>440407.6880626363</v>
       </c>
-      <c r="M6" t="n">
-        <v>305606.6728287993</v>
-      </c>
-      <c r="N6" t="n">
-        <v>440407.6880626361</v>
-      </c>
       <c r="O6" t="n">
-        <v>440407.6880626365</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626362</v>
+        <v>440407.6880626366</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26767,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>104.7859915916351</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47.11121015899766</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>46.15629491605227</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>121.0034800424139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>18.04904976788569</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.5983404493324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.012336859472725</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>111.5271211223675</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>18.2726879014462</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>290.5508749098661</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>202.3550983363691</v>
+        <v>143.8958802280736</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118046</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789767</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087276</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36443,7 +36445,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>389.1274892183196</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36674,19 +36676,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>541.1395634276697</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
@@ -36914,22 +36916,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642237</v>
+        <v>495.6240934217701</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>401.661976733487</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>586.9317337484853</v>
       </c>
       <c r="O36" t="n">
-        <v>362.8639159672606</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1326152325992</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38099,13 +38101,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>354.1326152325992</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
@@ -38114,7 +38116,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680955</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364240.651998531</v>
+        <v>2357223.63710682</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>276.8115626053595</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>88.80932687628595</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6.28367916400425</v>
       </c>
       <c r="I5" t="n">
-        <v>133.8822664769756</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>113.5079843357167</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>119.2728596652545</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>58.69009380754687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>142.6271181085174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>121.3204809373253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9016148438892</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>108.0397298726694</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>28.12580423844393</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.14968808829694</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,10 +2298,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>12.81263415054188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.44435658528488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>191.6057157592136</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>90.621375795679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.86740347662654</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.8662796794404</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151884</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>255.3303665522258</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>175.9880246214064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>117.1709514206834</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>191.2952892163686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>170.7164768414877</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2070.717079250664</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1701.754562310252</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1701.754562310252</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1315.966309712008</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>904.9804049224006</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>487.0165968205874</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.6493726044917</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6493726044917</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6493726044917</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>143.6493726044917</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>143.6493726044917</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6493726044917</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>143.6493726044917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.2978374347314</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1358.140854479381</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1358.140854479381</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>999.875155872631</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>614.0869032743867</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F5" t="n">
-        <v>203.1009984847792</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G5" t="n">
-        <v>189.1775944233701</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="H5" t="n">
-        <v>189.1775944233701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2576.671454992713</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2576.671454992713</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2245.608567649142</v>
       </c>
       <c r="W8" t="n">
-        <v>1934.263538435114</v>
+        <v>1892.839912379028</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.797780174034</v>
+        <v>1519.374154117948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>1129.234822142136</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7283310300498</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.7762810288177</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>921.7658319268351</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>693.7762810288177</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y13" t="n">
-        <v>693.7762810288177</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.6596981028219</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352015</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.100742076592</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.3081629330617</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,49 +5518,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M18" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259998</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>337.0115451844523</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5755,49 +5755,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,22 +5834,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4334.99846431984</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4334.99846431984</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4107.008913421822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4107.008913421822</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M24" t="n">
         <v>1722.015429253975</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3885.755254472818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>4282.30876419089</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>4054.319213292873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4033.668348055211</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1081.589728317899</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1081.589728317899</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>792.1725582809389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764783</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>3870.054822428816</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>894.4654733330078</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>894.4654733330078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>894.4654733330078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>3540.192194764783</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>3870.054822428816</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>4539.518583731476</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4008.875864681164</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3839.939681753257</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3689.823042340921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4236.865415579181</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4236.865415579181</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4236.865415579181</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>4008.875864681164</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4008.875864681164</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,73 +6913,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108311</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>3400.7765748652</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>3708.096708145162</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.4612303381598</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688036</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799329</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471158</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033469</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>909.3712637033469</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>909.3712637033469</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>688.5786845598168</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
         <v>2051.878056918008</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.9563154684962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C40" t="n">
-        <v>392.0201325405893</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X40" t="n">
-        <v>742.6047802987359</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.6047802987359</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,16 +7396,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>362.4615353427249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>531.3977182706318</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>531.3977182706318</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1925.814757496976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V46" t="n">
-        <v>1194.613602254709</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>176.717654749845</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>158.8724419039333</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>52.49733361305215</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>392.1113620226436</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>213.260391180662</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>29.47535963978171</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.03744927814691</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>253.7371603504723</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720727</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>38.86002301949878</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>308.1251096272034</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.23759968302141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>165.2025173992657</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>111.8080405451479</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>117.6699255163678</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>190.4588491136509</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.6822920936404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>239.3250091732861</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.1402967668099</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>94.63163663936371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>195.901622540912</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>84.56655916994264</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.96570050249687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338895</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25602,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>49.72163076763078</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>31.44452159752893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>60.84235410745936</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>47.86817651060704</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800522</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26453,7 +26453,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241774</v>
+        <v>-254872.6766241775</v>
       </c>
       <c r="C6" t="n">
         <v>335095.2025903667</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903667</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425967</v>
+        <v>-85726.93967398106</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.096802915</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029143</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700436</v>
+        <v>263009.8776103221</v>
       </c>
       <c r="K6" t="n">
-        <v>440407.6880626366</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="L6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="M6" t="n">
-        <v>305606.6728287992</v>
+        <v>304632.0815690778</v>
       </c>
       <c r="N6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="O6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626366</v>
+        <v>439433.0968029146</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,7 +26767,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.11121015899766</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.15629491605227</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>317.6390936003529</v>
       </c>
       <c r="I5" t="n">
-        <v>18.04904976788569</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>111.5271211223675</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>97.17546069240332</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>290.5508749098661</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>143.8958802280736</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>327.2930933377842</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>509.9122281478579</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>365.9658568354579</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>203.0727722009914</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>702.5357390731098</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>495.6240934217701</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>236.5687745713064</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>586.9317337484853</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.702428529907</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415069</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>349.2844000699651</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>515.2185245587281</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38107,16 +38107,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.2506324680955</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357223.63710682</v>
+        <v>2362162.899955851</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.3734398702018</v>
+        <v>370.304756115063</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>6.28367916400425</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>146.6545065420039</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>119.2728596652545</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>30.60408762095384</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052011</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>106.039399138058</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>113.9016148438892</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>7.312945786386426</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.12580423844393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151884</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>255.3303665522258</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>170.7164768414877</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
         <v>675.4941957298054</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>74.21353655248491</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>60.29013249107582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
         <v>709.5665374816297</v>
@@ -4719,10 +4719,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1129.234822142136</v>
+        <v>995.9506728057361</v>
       </c>
       <c r="C8" t="n">
-        <v>760.2723052017247</v>
+        <v>626.9881558653244</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2576.671454992713</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2576.671454992713</v>
+        <v>2443.387305656312</v>
       </c>
       <c r="V8" t="n">
-        <v>2245.608567649142</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="W8" t="n">
-        <v>1892.839912379028</v>
+        <v>1759.555763042628</v>
       </c>
       <c r="X8" t="n">
-        <v>1519.374154117948</v>
+        <v>1386.090004781548</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.234822142136</v>
+        <v>995.9506728057361</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600558</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>484.0375086983744</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655747</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045606</v>
+        <v>665.6859735286141</v>
       </c>
       <c r="X13" t="n">
-        <v>615.9770608986119</v>
+        <v>665.6859735286141</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>665.6859735286141</v>
       </c>
     </row>
     <row r="14">
@@ -5269,49 +5269,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5345,7 +5345,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331045</v>
+        <v>738.7219969042611</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>569.7858139763542</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>419.6691745640185</v>
       </c>
       <c r="E16" t="n">
         <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344997</v>
+        <v>920.3704617345009</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344997</v>
+        <v>920.3704617345009</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.9605584633442</v>
+        <v>920.3704617345009</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5582,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954972</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,10 +5983,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,22 +6056,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>339.750213104625</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L24" t="n">
         <v>953.6472828615138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6454,37 +6454,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6682,7 +6682,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,16 +6721,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6788,7 +6788,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6946,10 +6946,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,61 +7071,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688036</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471158</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473451</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262957</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7137,10 +7137,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,37 +7153,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,28 +7195,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,16 +7241,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1017.221394183544</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>762.5369059776569</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>473.1197359406963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169049</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>620.2426249169049</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>620.2426249169049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951795</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>409.7003683229567</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229567</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229576</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>52.49733361305215</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814691</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100647</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>61.20742196056986</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>111.8080405451479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>139.1210168601827</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.4588491136509</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338895</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.90698584635157</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.86817651060704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049989</v>
-      </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327919</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768971</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26447,13 +26447,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241775</v>
+        <v>-254872.6766241774</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903667</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="D6" t="n">
         <v>335095.2025903668</v>
       </c>
       <c r="E6" t="n">
-        <v>-85726.93967398106</v>
+        <v>-84849.80754023293</v>
       </c>
       <c r="F6" t="n">
-        <v>439433.096802915</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="G6" t="n">
-        <v>439433.0968029143</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="H6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="I6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366639</v>
       </c>
       <c r="J6" t="n">
-        <v>263009.8776103221</v>
+        <v>263887.0097440713</v>
       </c>
       <c r="K6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.228936664</v>
       </c>
       <c r="L6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="M6" t="n">
-        <v>304632.0815690778</v>
+        <v>305509.2137028269</v>
       </c>
       <c r="N6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="O6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="P6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.228936664</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26770,13 +26770,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990185</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990185</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990185</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.3604017932788</v>
+        <v>12.42908554841756</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6390936003529</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>208.0285350786791</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>97.17546069240332</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>149.2278925609835</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730645</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>720.1247453734233</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>720.1247453734233</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734239</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>203.0727722009914</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.702428529907</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
